--- a/template/samplep3.xlsx
+++ b/template/samplep3.xlsx
@@ -1,8 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E781106A-9FF4-4DFD-ABAB-481A4761BEE5}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -243,7 +244,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -261,33 +262,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -627,10 +622,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I43"/>
+  <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I1048576"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -642,17 +637,17 @@
       <c r="A1" s="3"/>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="17"/>
+      <c r="E1" s="20"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
       <c r="I1" s="6"/>
     </row>
     <row r="2" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2"/>
@@ -665,7 +660,7 @@
       <c r="I2" s="7"/>
     </row>
     <row r="3" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="18" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2"/>
@@ -681,10 +676,10 @@
       <c r="A4" s="14"/>
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="20"/>
+      <c r="E4" s="21"/>
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
@@ -705,9 +700,9 @@
       <c r="A6" s="13"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="7"/>
@@ -716,9 +711,9 @@
       <c r="A7" s="13"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="7"/>
@@ -727,9 +722,9 @@
       <c r="A8" s="11"/>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="7"/>
@@ -738,9 +733,9 @@
       <c r="A9" s="13"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="7"/>
@@ -749,9 +744,9 @@
       <c r="A10" s="13"/>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="7"/>
@@ -760,9 +755,9 @@
       <c r="A11" s="13"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="7"/>
@@ -771,9 +766,9 @@
       <c r="A12" s="13"/>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="7"/>
@@ -782,9 +777,9 @@
       <c r="A13" s="13"/>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="7"/>
@@ -793,9 +788,9 @@
       <c r="A14" s="13"/>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="7"/>
@@ -804,9 +799,9 @@
       <c r="A15" s="11"/>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="7"/>
@@ -815,9 +810,9 @@
       <c r="A16" s="11"/>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="7"/>
@@ -826,9 +821,9 @@
       <c r="A17" s="11"/>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="7"/>
@@ -837,9 +832,9 @@
       <c r="A18" s="11"/>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="7"/>
@@ -848,9 +843,9 @@
       <c r="A19" s="11"/>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="7"/>
@@ -859,9 +854,9 @@
       <c r="A20" s="11"/>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="7"/>
@@ -870,9 +865,9 @@
       <c r="A21" s="11"/>
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="7"/>
@@ -881,9 +876,9 @@
       <c r="A22" s="11"/>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="7"/>
@@ -892,9 +887,9 @@
       <c r="A23" s="11"/>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="7"/>
@@ -903,9 +898,9 @@
       <c r="A24" s="11"/>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="7"/>
@@ -914,9 +909,9 @@
       <c r="A25" s="8"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="7"/>
@@ -969,9 +964,9 @@
       <c r="A30" s="8"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="7"/>
@@ -980,9 +975,9 @@
       <c r="A31" s="8"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="7"/>
@@ -991,9 +986,9 @@
       <c r="A32" s="8"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32" s="7"/>
@@ -1002,9 +997,9 @@
       <c r="A33" s="8"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
       <c r="I33" s="7"/>
@@ -1013,9 +1008,9 @@
       <c r="A34" s="8"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
       <c r="I34" s="7"/>
@@ -1024,9 +1019,9 @@
       <c r="A35" s="8"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="24"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
       <c r="I35" s="7"/>
@@ -1035,9 +1030,9 @@
       <c r="A36" s="8"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="24"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36" s="7"/>
@@ -1046,89 +1041,153 @@
       <c r="A37" s="8"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="24"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
       <c r="I37" s="7"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="8"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
-      <c r="D38" s="25"/>
-      <c r="E38" s="25"/>
-      <c r="F38" s="25"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
       <c r="I38" s="7"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="8"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
-      <c r="D39" s="25"/>
-      <c r="E39" s="25"/>
-      <c r="F39" s="25"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
       <c r="I39" s="7"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="8"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
-      <c r="D40" s="25"/>
-      <c r="E40" s="25"/>
-      <c r="F40" s="25"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
       <c r="I40" s="7"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="8"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
-      <c r="D41" s="25"/>
-      <c r="E41" s="25"/>
-      <c r="F41" s="25"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="22"/>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
       <c r="I41" s="7"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="8"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
-      <c r="D42" s="25"/>
-      <c r="E42" s="25"/>
-      <c r="F42" s="25"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
       <c r="I42" s="7"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A43" s="9"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="26"/>
-      <c r="E43" s="26"/>
-      <c r="F43" s="26"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="10"/>
+    <row r="43" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="8"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="7"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A44" s="8"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="22"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="7"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A45" s="8"/>
+      <c r="D45" s="22"/>
+      <c r="E45" s="22"/>
+      <c r="F45" s="22"/>
+      <c r="I45" s="7"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A46" s="8"/>
+      <c r="D46" s="22"/>
+      <c r="E46" s="22"/>
+      <c r="F46" s="22"/>
+      <c r="I46" s="7"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A47" s="8"/>
+      <c r="D47" s="22"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="22"/>
+      <c r="I47" s="7"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A48" s="8"/>
+      <c r="D48" s="22"/>
+      <c r="E48" s="22"/>
+      <c r="F48" s="22"/>
+      <c r="I48" s="7"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A49" s="8"/>
+      <c r="D49" s="22"/>
+      <c r="E49" s="22"/>
+      <c r="F49" s="22"/>
+      <c r="I49" s="7"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A50" s="8"/>
+      <c r="D50" s="22"/>
+      <c r="E50" s="22"/>
+      <c r="F50" s="22"/>
+      <c r="I50" s="7"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A51" s="9"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="23"/>
+      <c r="E51" s="23"/>
+      <c r="F51" s="23"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="D6:F12"/>
-    <mergeCell ref="D13:F19"/>
-    <mergeCell ref="D20:F25"/>
-    <mergeCell ref="D26:F31"/>
-    <mergeCell ref="D32:F37"/>
-    <mergeCell ref="D38:F43"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D44:F51"/>
+    <mergeCell ref="D6:F15"/>
+    <mergeCell ref="D16:F22"/>
+    <mergeCell ref="D23:F29"/>
+    <mergeCell ref="D30:F36"/>
+    <mergeCell ref="D37:F43"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
